--- a/Python_book.xlsx
+++ b/Python_book.xlsx
@@ -899,21 +899,21 @@
       <c r="B19" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Python. Экспресс-курс. 3-е издание
+    Python для детей и родителей. Играй и программируй
   </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Наоми Седер
+    Брайсон Пэйн
   </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    1 885 ₽
+    1 104 ₽
   </t>
         </is>
       </c>
@@ -925,21 +925,21 @@
       <c r="B20" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Python для детей и родителей. Играй и программируй
+    Python. Экспресс-курс. 3-е издание
   </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Брайсон Пэйн
+    Наоми Седер
   </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    1 104 ₽
+    1 885 ₽
   </t>
         </is>
       </c>
@@ -977,21 +977,21 @@
       <c r="B22" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Head First. Kotlin. Руководство для начинающих программистов
+    Python, например
   </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Дэвид Гриффитс
+    Никола Лейси
   </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    2 860 ₽
+    1 456 ₽
   </t>
         </is>
       </c>
@@ -1003,21 +1003,21 @@
       <c r="B23" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Python, например
+    Head First. Kotlin. Руководство для начинающих программистов
   </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Никола Лейси
+    Дэвид Гриффитс
   </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    1 456 ₽
+    2 860 ₽
   </t>
         </is>
       </c>
@@ -1418,21 +1418,21 @@
       <c r="B39" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Python. Великое программирование в Minecraft
+    Учим Python, делая крутые игры
   </t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Андрей Корягин, Алиса Корягина
+    Эл Свейгарт
   </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    1 225 ₽
+    954 ₽
   </t>
         </is>
       </c>
@@ -1444,21 +1444,21 @@
       <c r="B40" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Основы Python для Data Science
+    Python. Великое программирование в Minecraft
   </t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Кеннеди Берман
+    Андрей Корягин, Алиса Корягина
   </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    2 114 ₽
+    1 225 ₽
   </t>
         </is>
       </c>
@@ -1470,21 +1470,21 @@
       <c r="B41" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Знакомство с Python
+    Основы Python для Data Science
   </t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Дэн Бейдер, Дэвид Эймос, Джоанна Яблонски
+    Кеннеди Берман
   </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    1 963 ₽
+    2 114 ₽
   </t>
         </is>
       </c>
@@ -1496,21 +1496,21 @@
       <c r="B42" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Учим Python, делая крутые игры
+    Знакомство с Python
   </t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Эл Свейгарт
+    Дэн Бейдер, Дэвид Эймос, Джоанна Яблонски
   </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    954 ₽
+    1 963 ₽
   </t>
         </is>
       </c>
@@ -1522,21 +1522,21 @@
       <c r="B43" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Легкий способ выучить Python 3 еще глубже
+    Основы искусственного интеллекта в примерах на Python. Самоучитель
   </t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Зед А. Шоу
+    Анатолий Постолит
   </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    700 ₽
+    872 ₽
   </t>
         </is>
       </c>
@@ -1548,21 +1548,21 @@
       <c r="B44" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Основы искусственного интеллекта в примерах на Python. Самоучитель
+    Black Hat Python: программирование для хакеров и пентестеров, 2-е изд
   </t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Анатолий Постолит
+    Джастин Зейтц
   </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    872 ₽
+    1 547 ₽
   </t>
         </is>
       </c>
@@ -1574,21 +1574,21 @@
       <c r="B45" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Простой Python. Современный стиль программирования
+    Легкий способ выучить Python 3 еще глубже
   </t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Билл Любанович
+    Зед А. Шоу
   </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    1 872 ₽
+    700 ₽
   </t>
         </is>
       </c>
@@ -1600,21 +1600,21 @@
       <c r="B46" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Black Hat Python: программирование для хакеров и пентестеров, 2-е изд
+    Простой Python. Современный стиль программирования
   </t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Джастин Зейтц
+    Билл Любанович
   </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    1 547 ₽
+    1 872 ₽
   </t>
         </is>
       </c>
@@ -1704,21 +1704,21 @@
       <c r="B50" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Машинное обучение с использованием Python. Сборник рецептов
+    Математические алгоритмы для программистов. 3D-графика, машинное обучение и моделирование на Python
   </t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Крис Элбон
+    Пол Орланд
   </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    803 ₽
+    3 342 ₽
   </t>
         </is>
       </c>
@@ -1730,21 +1730,21 @@
       <c r="B51" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Математические алгоритмы для программистов. 3D-графика, машинное обучение и моделирование на Python
+    Основы программирования на языке Python
   </t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Пол Орланд
+    Дмитрий Златопольский
   </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    3 342 ₽
+    973 ₽
   </t>
         </is>
       </c>
@@ -1756,21 +1756,21 @@
       <c r="B52" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Основы программирования на языке Python
+    Машинное обучение с использованием Python. Сборник рецептов
   </t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Дмитрий Златопольский
+    Крис Элбон
   </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    973 ₽
+    803 ₽
   </t>
         </is>
       </c>
@@ -1782,21 +1782,21 @@
       <c r="B53" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Программирование на Python. Первые шаги
+    Глубокое обучение на Python
   </t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    А. Щерба
+    Франсуа Шолле
   </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    749 ₽
+    2 587 ₽
   </t>
         </is>
       </c>
@@ -1808,21 +1808,21 @@
       <c r="B54" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Глубокое обучение на Python
+    Python без проблем: решаем реальные задачи и пишем полезный код
   </t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Франсуа Шолле
+    Даниэль Зингаро
   </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    2 587 ₽
+    1 482 ₽
   </t>
         </is>
       </c>
@@ -1834,21 +1834,21 @@
       <c r="B55" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Основы Python. Научитесь думать как программист
+    Программирование на Python. Первые шаги
   </t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Аллен Б. Дауни
+    А. Щерба
   </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    1 420 ₽
+    749 ₽
   </t>
         </is>
       </c>
@@ -1860,21 +1860,21 @@
       <c r="B56" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Python без проблем: решаем реальные задачи и пишем полезный код
+    Основы Python. Научитесь думать как программист
   </t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Даниэль Зингаро
+    Аллен Б. Дауни
   </t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    1 482 ₽
+    1 420 ₽
   </t>
         </is>
       </c>
@@ -1912,21 +1912,20 @@
       <c r="B58" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Глубокое обучение с подкреплением на Python. OpenAI Gym и TensorFlow для профи
+    HTML, CSS, SCRATCH, PYTHON. Моя первая книга по программированию
   </t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-    Судхарсан Равичандиран
-  </t>
+          <t>
+</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    1 459 ₽
+    525 ₽
   </t>
         </is>
       </c>
@@ -1938,21 +1937,21 @@
       <c r="B59" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Скраппинг веб-сайтов с помощью Python
+    Анализ социальных медиа на Python
   </t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Райан Митчелл
+    Марко Бонцанини
   </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    1 505 ₽
+    2 350 ₽
   </t>
         </is>
       </c>
@@ -1964,20 +1963,21 @@
       <c r="B60" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    HTML, CSS, SCRATCH, PYTHON. Моя первая книга по программированию
+    Скраппинг веб-сайтов с помощью Python
   </t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>
-</t>
+          <t xml:space="preserve">
+    Райан Митчелл
+  </t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    525 ₽
+    1 505 ₽
   </t>
         </is>
       </c>
@@ -1989,21 +1989,21 @@
       <c r="B61" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Объяснимые модели искусственного интеллекта на Python
+    Паттерны разработки на Python: TDD, DDD и событийно-ориентированная архитектура
   </t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Прадипта Мишра
+    Гарри Персиваль
   </t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    2 083 ₽
+    2 138 ₽
   </t>
         </is>
       </c>
@@ -2015,21 +2015,21 @@
       <c r="B62" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Анализ социальных медиа на Python
+    Глубокое обучение с подкреплением на Python. OpenAI Gym и TensorFlow для профи
   </t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Марко Бонцанини
+    Судхарсан Равичандиран
   </t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    2 350 ₽
+    1 459 ₽
   </t>
         </is>
       </c>
@@ -2041,21 +2041,21 @@
       <c r="B63" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Язык программирования Python: практикум. Учебное пособие
+    Объяснимые модели искусственного интеллекта на Python
   </t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Роман Жуков
+    Прадипта Мишра
   </t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    1 913 ₽
+    2 083 ₽
   </t>
         </is>
       </c>
@@ -2067,21 +2067,21 @@
       <c r="B64" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Паттерны разработки на Python: TDD, DDD и событийно-ориентированная архитектура
+    Python для детей, которые пока не программируют
   </t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Гарри Персиваль
+    Елена Крылова
   </t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    2 138 ₽
+    802 ₽
   </t>
         </is>
       </c>
@@ -2093,21 +2093,21 @@
       <c r="B65" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Структуры данных в Python. Начальный курс
+    Крупномасштабное машинное обучение вместе с Python
   </t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Дональд Р. Шихи
+    Альберто Боскетти, Лука Массарон, Бастиан Шарден
   </t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    1 460 ₽
+    1 784 ₽
   </t>
         </is>
       </c>
@@ -2119,21 +2119,20 @@
       <c r="B66" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Генетические алгоритмы на Python. Применение генетических алгоритмов к решению задач глубокого обучения и искуственного интеллекта
+    Изучаем квантовые вычисления на Python и Q# 
   </t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-    Эйял Вирсански
-  </t>
+          <t>
+</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    2 109 ₽
+    2 992 ₽
   </t>
         </is>
       </c>
@@ -2145,21 +2144,21 @@
       <c r="B67" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Twisted из первых рук. Событийное и асинхронное программирование на Python
+    Язык программирования Python: практикум. Учебное пособие
   </t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Моше Задка
+    Роман Жуков
   </t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    2 235 ₽
+    1 913 ₽
   </t>
         </is>
       </c>
@@ -2171,20 +2170,21 @@
       <c r="B68" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Изучаем квантовые вычисления на Python и Q# 
+    Структуры данных в Python. Начальный курс
   </t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>
-</t>
+          <t xml:space="preserve">
+    Дональд Р. Шихи
+  </t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    2 992 ₽
+    1 460 ₽
   </t>
         </is>
       </c>
@@ -2196,21 +2196,21 @@
       <c r="B69" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Python для детей, которые пока не программируют
+    Генетические алгоритмы на Python. Применение генетических алгоритмов к решению задач глубокого обучения и искуственного интеллекта
   </t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Елена Крылова
+    Эйял Вирсански
   </t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    802 ₽
+    2 109 ₽
   </t>
         </is>
       </c>
@@ -2222,21 +2222,20 @@
       <c r="B70" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Крупномасштабное машинное обучение вместе с Python
+    Профессиональная разработка на Python 
   </t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-    Альберто Боскетти, Лука Массарон, Бастиан Шарден
-  </t>
+          <t>
+</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    1 784 ₽
+    3 047 ₽
   </t>
         </is>
       </c>
@@ -2248,21 +2247,21 @@
       <c r="B71" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Изучение робототехники с помощью Python
+    Прогнозное моделирование в IBM SPSS Statistics, R и Python Метод деревьев решений и случайный лес
   </t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Джозеф Лентин
+    Артем Груздев
   </t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    2 235 ₽
+    3 420 ₽
   </t>
         </is>
       </c>
@@ -2274,20 +2273,21 @@
       <c r="B72" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Профессиональная разработка на Python 
+    Twisted из первых рук. Событийное и асинхронное программирование на Python
   </t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>
-</t>
+          <t xml:space="preserve">
+    Моше Задка
+  </t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    3 047 ₽
+    2 235 ₽
   </t>
         </is>
       </c>
@@ -2351,21 +2351,21 @@
       <c r="B75" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Прогнозное моделирование в IBM SPSS Statistics, R и Python Метод деревьев решений и случайный лес
+    Изучение робототехники с помощью Python
   </t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Артем Груздев
+    Джозеф Лентин
   </t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    3 420 ₽
+    2 235 ₽
   </t>
         </is>
       </c>
@@ -2377,21 +2377,21 @@
       <c r="B76" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Django 2.1 Практика создания веб-сайтов на Python. Модели, контроллеры и шаблоны. Разграничение доступа. Аутентификация через социальные сети. Вывод миниатюр. Bootstrap. Captcha. Angular. Bbcode. Rest
+    Цифровая обработка сигналов на языке Python (м) Дауни
   </t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Владимир Дронов
+    Аллен Б. Дауни
   </t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    1 141 ₽
+    950 ₽
   </t>
         </is>
       </c>
@@ -2403,21 +2403,21 @@
       <c r="B77" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Глубокое обучение: легкая разработка проектов на Python
+    Python и машинное обучение
   </t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Сет Вейдман
+    Себастьян Рашка
   </t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    2 789 ₽
+    2 454 ₽
   </t>
         </is>
       </c>
@@ -2429,21 +2429,21 @@
       <c r="B78" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Цифровая обработка сигналов на языке Python (м) Дауни
+    Django 2.1 Практика создания веб-сайтов на Python. Модели, контроллеры и шаблоны. Разграничение доступа. Аутентификация через социальные сети. Вывод миниатюр. Bootstrap. Captcha. Angular. Bbcode. Rest
   </t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Аллен Б. Дауни
+    Владимир Дронов
   </t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    950 ₽
+    1 141 ₽
   </t>
         </is>
       </c>
@@ -2455,21 +2455,21 @@
       <c r="B79" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Python и машинное обучение
+    Глубокое обучение: легкая разработка проектов на Python
   </t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Себастьян Рашка
+    Сет Вейдман
   </t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    2 454 ₽
+    2 789 ₽
   </t>
         </is>
       </c>
@@ -2845,21 +2845,21 @@
       <c r="B94" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Asyncio и конкурентное программирование на Python
+    Научное программирование на Python 
   </t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Мэттью Фаулер
+    Кейси Хилл
   </t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    2 759 ₽
+    2 596 ₽
   </t>
         </is>
       </c>
@@ -2871,21 +2871,21 @@
       <c r="B95" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Научное программирование на Python 
+    Asyncio и конкурентное программирование на Python
   </t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Кейси Хилл
+    Мэттью Фаулер
   </t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    2 596 ₽
+    2 759 ₽
   </t>
         </is>
       </c>
@@ -2975,21 +2975,21 @@
       <c r="B99" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Head First. Изучаем Swift
+    Привет, РУТНОN! Моя первая книга по программированию
   </t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Пэрис Баттфилд-Эддисон, Джон Мэннинг
+    Петр Томашевский
   </t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    2 573 ₽
+    763 ₽
   </t>
         </is>
       </c>
@@ -3001,21 +3001,21 @@
       <c r="B100" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Привет, РУТНОN! Моя первая книга по программированию
+    Head First. Изучаем Swift
   </t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Петр Томашевский
+    Пэрис Баттфилд-Эддисон, Джон Мэннинг
   </t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    763 ₽
+    2 573 ₽
   </t>
         </is>
       </c>
@@ -3261,21 +3261,21 @@
       <c r="B110" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Программирование GPU при помощи Python и CUDA
+    Простой Python для опытных программистов 
   </t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Бриан Тоуманнен
+    Рик Гаско
   </t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    2 011 ₽
+    893 ₽
   </t>
         </is>
       </c>
@@ -3287,21 +3287,21 @@
       <c r="B111" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Простой Python для опытных программистов 
+    Использование языка Python в теории вероятностей. Учебник
   </t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Рик Гаско
+    Сергей Криволапов
   </t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    893 ₽
+    1 892 ₽
   </t>
         </is>
       </c>
@@ -3313,20 +3313,21 @@
       <c r="B112" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Построение систем машинного обучения на языке Python
+    Аналитика в Power BI с помощью R и Python
   </t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>
-</t>
+          <t xml:space="preserve">
+    Розалин Уэйд
+  </t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    1 597 ₽
+    2 299 ₽
   </t>
         </is>
       </c>
@@ -3338,7 +3339,7 @@
       <c r="B113" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Python и анализ данных
+    Python для финансовых расчетов. Искусство работы с финансовыми данными
   </t>
         </is>
       </c>
@@ -3351,7 +3352,7 @@
       <c r="D113" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    1 787 ₽
+    6 000 ₽
   </t>
         </is>
       </c>
@@ -3363,21 +3364,21 @@
       <c r="B114" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Простой Python просто с нуля
+    Программирование GPU при помощи Python и CUDA
   </t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Рик Гаско
+    Бриан Тоуманнен
   </t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    942 ₽
+    2 011 ₽
   </t>
         </is>
       </c>
@@ -3389,20 +3390,21 @@
       <c r="B115" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Python в системном администрировании UNIX и Linux
+    Простой Python просто с нуля
   </t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>
-</t>
+          <t xml:space="preserve">
+    Рик Гаско
+  </t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    3 150 ₽
+    942 ₽
   </t>
         </is>
       </c>
@@ -3414,21 +3416,20 @@
       <c r="B116" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Использование языка Python в теории вероятностей. Учебник
+    Построение систем машинного обучения на языке Python
   </t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-    Сергей Криволапов
-  </t>
+          <t>
+</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    1 892 ₽
+    1 597 ₽
   </t>
         </is>
       </c>
@@ -3440,21 +3441,20 @@
       <c r="B117" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Аналитика в Power BI с помощью R и Python
+    Python и анализ данных
   </t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-    Розалин Уэйд
-  </t>
+          <t>
+</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    2 299 ₽
+    1 787 ₽
   </t>
         </is>
       </c>
@@ -3492,20 +3492,21 @@
       <c r="B119" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Python для финансовых расчетов. Искусство работы с финансовыми данными
+    Python. К вершинам мастерства. Локаничное и эффективное программирование
   </t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>
-</t>
+          <t xml:space="preserve">
+    Лучано Рамальо
+  </t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    6 000 ₽
+    4 058 ₽
   </t>
         </is>
       </c>
@@ -3517,7 +3518,7 @@
       <c r="B120" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Python и наука о данных для чайников
+    Python в системном администрировании UNIX и Linux
   </t>
         </is>
       </c>
@@ -3530,7 +3531,7 @@
       <c r="D120" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    1 800 ₽
+    3 150 ₽
   </t>
         </is>
       </c>
@@ -3542,21 +3543,20 @@
       <c r="B121" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Python. К вершинам мастерства. Локаничное и эффективное программирование
+    Python и наука о данных для чайников
   </t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-    Лучано Рамальо
-  </t>
+          <t>
+</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    4 058 ₽
+    1 800 ₽
   </t>
         </is>
       </c>
@@ -3619,21 +3619,21 @@
       <c r="B124" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Изучаем Python. Том 2
+    Разработка геоприложений на языке Python
   </t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Марк Лутц
+    Эрик Вестра
   </t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    3 050 ₽
+    2 350 ₽
   </t>
         </is>
       </c>
@@ -3645,21 +3645,21 @@
       <c r="B125" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Программирование на языке Python: учебный курс
+    Программирование на Python, том II, 4-е издание.
   </t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Роберт Седжвик
+    Марк Лутц
   </t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    2 440 ₽
+    3 800 ₽
   </t>
         </is>
       </c>
@@ -3671,7 +3671,7 @@
       <c r="B126" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Программирование на Python, том II, 4-е издание.
+    Изучаем Python. Том 2
   </t>
         </is>
       </c>
@@ -3685,7 +3685,7 @@
       <c r="D126" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    3 800 ₽
+    3 050 ₽
   </t>
         </is>
       </c>
@@ -3697,21 +3697,21 @@
       <c r="B127" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Разработка геоприложений на языке Python
+    Программирование на языке Python: учебный курс
   </t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Эрик Вестра
+    Роберт Седжвик
   </t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    2 350 ₽
+    2 440 ₽
   </t>
         </is>
       </c>
@@ -3723,21 +3723,21 @@
       <c r="B128" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Алгоритмы. Справочник с примерами на C, C++, Java и Python, 2-е издание
+    Математика на Python. Часть I. Элементы линейной алгебры и аналитической геометрии. Учебно-методическое пособие
   </t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Гэри Поллис, Стэнли Селков, Джордж Хайнеманн
+    Анна Балджы
   </t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    2 400 ₽
+    400 ₽
   </t>
         </is>
       </c>
@@ -3749,20 +3749,21 @@
       <c r="B129" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Django. Разработка веб-приложений на Python. - Пер. с англ.
+    Экономика на Python. Учебник
   </t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>
-</t>
+          <t xml:space="preserve">
+    Марина Хрипунова
+  </t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    2 520 ₽
+    1 376 ₽
   </t>
         </is>
       </c>
@@ -3774,21 +3775,21 @@
       <c r="B130" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Численные методы. Вычислительный практикум. Практическое применение численных методов при использовании алгоритмического языка Python
+    Анализ поведенческих данных на R и Python 
   </t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Петр Вабищевич
+    Флоран Бюиссон
   </t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    927 ₽
+    3 206 ₽
   </t>
         </is>
       </c>
@@ -3800,21 +3801,21 @@
       <c r="B131" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Математика на Python. Часть I. Элементы линейной алгебры и аналитической геометрии. Учебно-методическое пособие
+    Язык программирования Python. Учебное пособие
   </t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Анна Балджы
+    Роман Жуков
   </t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    400 ₽
+    1 884 ₽
   </t>
         </is>
       </c>
@@ -3826,21 +3827,21 @@
       <c r="B132" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Экономика на Python. Учебник
+    Численные методы. Вычислительный практикум. Практическое применение численных методов при использовании алгоритмического языка Python
   </t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Марина Хрипунова
+    Петр Вабищевич
   </t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    1 376 ₽
+    927 ₽
   </t>
         </is>
       </c>
@@ -3852,21 +3853,21 @@
       <c r="B133" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Анализ поведенческих данных на R и Python 
+    Алгоритмы. Справочник с примерами на C, C++, Java и Python, 2-е издание
   </t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Флоран Бюиссон
+    Гэри Поллис, Стэнли Селков, Джордж Хайнеманн
   </t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    3 206 ₽
+    2 400 ₽
   </t>
         </is>
       </c>
@@ -3878,21 +3879,20 @@
       <c r="B134" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    Язык программирования Python. Учебное пособие
+    Django. Разработка веб-приложений на Python. - Пер. с англ.
   </t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-    Роман Жуков
-  </t>
+          <t>
+</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
           <t xml:space="preserve">
-    1 884 ₽
+    2 520 ₽
   </t>
         </is>
       </c>
